--- a/dist/GUI/CPR_100221_20210210-114741/Results.xlsx
+++ b/dist/GUI/CPR_100221_20210210-114741/Results.xlsx
@@ -2625,13 +2625,13 @@
         <v>0.1202</v>
       </c>
       <c r="AX4">
-        <v>0.0026681229</v>
+        <v>0.0026718929</v>
       </c>
       <c r="AY4">
         <v>0.002663187902121503</v>
       </c>
       <c r="AZ4">
-        <v>2.21973618968386</v>
+        <v>2.222872628951747</v>
       </c>
       <c r="BA4" t="s">
         <v>26</v>
@@ -2643,7 +2643,7 @@
         <v>145.9559869192395</v>
       </c>
       <c r="BD4">
-        <v>0.5485190109968855</v>
+        <v>0.5485190141196739</v>
       </c>
       <c r="BE4">
         <v>62.2</v>
@@ -2959,10 +2959,10 @@
         <v>0.1147</v>
       </c>
       <c r="AQ6">
-        <v>0.0053</v>
+        <v>0.0052</v>
       </c>
       <c r="AR6">
-        <v>4.620749782040105</v>
+        <v>4.533565823888405</v>
       </c>
       <c r="AS6">
         <v>9.279200047895037E-06</v>
@@ -2980,13 +2980,13 @@
         <v>0.1141</v>
       </c>
       <c r="AX6">
-        <v>0.0023672788</v>
+        <v>0.0023776868</v>
       </c>
       <c r="AY6">
         <v>0.002318047539323532</v>
       </c>
       <c r="AZ6">
-        <v>2.074740403155127</v>
+        <v>2.083862226117441</v>
       </c>
       <c r="BA6" t="s">
         <v>27</v>
@@ -2998,7 +2998,7 @@
         <v>144.5212129054278</v>
       </c>
       <c r="BD6">
-        <v>0.4967809281740328</v>
+        <v>0.4967809364669083</v>
       </c>
       <c r="BE6">
         <v>56.09999999999999</v>
@@ -3335,13 +3335,13 @@
         <v>0.1293</v>
       </c>
       <c r="AX8">
-        <v>0.0025288952</v>
+        <v>0.0025265543</v>
       </c>
       <c r="AY8">
         <v>0.002532899142229332</v>
       </c>
       <c r="AZ8">
-        <v>1.955835421500387</v>
+        <v>1.95402498066512</v>
       </c>
       <c r="BA8" t="s">
         <v>28</v>
@@ -3353,7 +3353,7 @@
         <v>144.5730827553311</v>
       </c>
       <c r="BD8">
-        <v>0.5466892949716761</v>
+        <v>0.5466892931645707</v>
       </c>
       <c r="BE8">
         <v>71.30000000000001</v>
@@ -3690,13 +3690,13 @@
         <v>0.1125</v>
       </c>
       <c r="AX10">
-        <v>0.0024828679</v>
+        <v>0.0024774785</v>
       </c>
       <c r="AY10">
         <v>0.002485978377922835</v>
       </c>
       <c r="AZ10">
-        <v>2.206993688888889</v>
+        <v>2.202203111111111</v>
       </c>
       <c r="BA10" t="s">
         <v>29</v>
@@ -3708,7 +3708,7 @@
         <v>145.2360873039804</v>
       </c>
       <c r="BD10">
-        <v>0.3792349793517633</v>
+        <v>0.3792349734129504</v>
       </c>
       <c r="BE10">
         <v>54.5</v>
@@ -4045,13 +4045,13 @@
         <v>0.1446</v>
       </c>
       <c r="AX12">
-        <v>0.003295401</v>
+        <v>0.0032872178</v>
       </c>
       <c r="AY12">
         <v>0.003300004180780491</v>
       </c>
       <c r="AZ12">
-        <v>2.278977178423236</v>
+        <v>2.273317980636238</v>
       </c>
       <c r="BA12" t="s">
         <v>30</v>
@@ -4063,7 +4063,7 @@
         <v>145.9740842567913</v>
       </c>
       <c r="BD12">
-        <v>0.4878895908625957</v>
+        <v>0.4878895814662635</v>
       </c>
       <c r="BE12">
         <v>86.59999999999999</v>
@@ -4272,8 +4272,8 @@
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
@@ -4479,10 +4479,10 @@
         <v>2.701597863848178E-05</v>
       </c>
       <c r="I4">
-        <v>0.001518292136678262</v>
+        <v>68.24114306418033</v>
       </c>
       <c r="J4">
-        <v>3.230829199979801E-05</v>
+        <v>1.452128166415402</v>
       </c>
       <c r="K4">
         <v>145.9064109889343</v>
@@ -4500,7 +4500,7 @@
         <v>0.1202</v>
       </c>
       <c r="P4">
-        <v>0.0026681229</v>
+        <v>0.0026718929</v>
       </c>
       <c r="Q4">
         <v>145.9064109889343</v>
@@ -4594,10 +4594,10 @@
         <v>2.40145396881105E-05</v>
       </c>
       <c r="I6">
-        <v>0.002908097732725629</v>
+        <v>129.6336887695163</v>
       </c>
       <c r="J6">
-        <v>5.878438272459443E-05</v>
+        <v>2.620419626504751</v>
       </c>
       <c r="K6">
         <v>144.4746150985909</v>
@@ -4609,13 +4609,13 @@
         <v>0.1147</v>
       </c>
       <c r="N6">
-        <v>0.0053</v>
+        <v>0.0052</v>
       </c>
       <c r="O6">
         <v>0.1141</v>
       </c>
       <c r="P6">
-        <v>0.0023672788</v>
+        <v>0.0023776868</v>
       </c>
       <c r="Q6">
         <v>144.4746150985909</v>
@@ -4709,10 +4709,10 @@
         <v>2.633488345141829E-05</v>
       </c>
       <c r="I8">
-        <v>0.003791374615280947</v>
+        <v>167.5351628258868</v>
       </c>
       <c r="J8">
-        <v>7.485256531923752E-05</v>
+        <v>3.307622693930106</v>
       </c>
       <c r="K8">
         <v>144.5202595351331</v>
@@ -4730,7 +4730,7 @@
         <v>0.1293</v>
       </c>
       <c r="P8">
-        <v>0.0025288952</v>
+        <v>0.0025265543</v>
       </c>
       <c r="Q8">
         <v>144.5202595351331</v>
@@ -4824,10 +4824,10 @@
         <v>2.544033175877136E-05</v>
       </c>
       <c r="I10">
-        <v>0.001816972038717535</v>
+        <v>79.93673670418434</v>
       </c>
       <c r="J10">
-        <v>3.908150935315588E-05</v>
+        <v>1.719370610331665</v>
       </c>
       <c r="K10">
         <v>145.1899155599503</v>
@@ -4845,7 +4845,7 @@
         <v>0.1125</v>
       </c>
       <c r="P10">
-        <v>0.0024828679</v>
+        <v>0.0024774785</v>
       </c>
       <c r="Q10">
         <v>145.1899155599503</v>
@@ -4939,10 +4939,10 @@
         <v>3.445038229652278E-05</v>
       </c>
       <c r="I12">
-        <v>0.004318867380315865</v>
+        <v>190.0653426357847</v>
       </c>
       <c r="J12">
-        <v>9.898244006686914E-05</v>
+        <v>4.356033591580113</v>
       </c>
       <c r="K12">
         <v>145.9144393217995</v>
@@ -4960,7 +4960,7 @@
         <v>0.1446</v>
       </c>
       <c r="P12">
-        <v>0.003295401</v>
+        <v>0.0032872178</v>
       </c>
       <c r="Q12">
         <v>145.9144393217995</v>

--- a/dist/GUI/CPR_100221_20210210-114741/Results.xlsx
+++ b/dist/GUI/CPR_100221_20210210-114741/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="137">
   <si>
     <t>Lab. #</t>
   </si>
@@ -928,7 +928,7 @@
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
     <col min="23" max="23" width="20.7109375" customWidth="1"/>
     <col min="24" max="24" width="20.7109375" customWidth="1"/>
-    <col min="25" max="25" width="23.7109375" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" customWidth="1"/>
     <col min="26" max="26" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1107,10 +1107,10 @@
         <v>0.1671898113278987</v>
       </c>
       <c r="U3" s="4">
-        <v>1.324584322994288</v>
+        <v>1.324582333196705</v>
       </c>
       <c r="V3" s="4">
-        <v>0.3409000047751028</v>
+        <v>0.3409005173764483</v>
       </c>
       <c r="W3" s="4">
         <v>0.1838227800153526</v>
@@ -1119,10 +1119,10 @@
         <v>0.4667233759767803</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.2425652817721227</v>
+        <v>0.2425649162228197</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.32695342528132</v>
+        <v>0.3269535019506545</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1184,10 +1184,10 @@
         <v>0.0478513419537915</v>
       </c>
       <c r="U4">
-        <v>0.0032773447034385</v>
+        <v>0.003275356462361479</v>
       </c>
       <c r="V4">
-        <v>2.118638886166868</v>
+        <v>2.119924914268915</v>
       </c>
       <c r="W4">
         <v>0.09736895715369355</v>
@@ -1196,10 +1196,10 @@
         <v>0.198702951628399</v>
       </c>
       <c r="Y4">
-        <v>0.0003205476770501719</v>
+        <v>0.0003203543385384721</v>
       </c>
       <c r="Z4">
-        <v>2.018904390208913</v>
+        <v>2.020137790100577</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1">
@@ -1258,10 +1258,10 @@
         <v>0.18475194609784</v>
       </c>
       <c r="U5" s="4">
-        <v>1.323333400550307</v>
+        <v>1.32333141153102</v>
       </c>
       <c r="V5" s="4">
-        <v>0.2852824024570378</v>
+        <v>0.2852828322387429</v>
       </c>
       <c r="W5" s="4">
         <v>0.1830110572045474</v>
@@ -1270,10 +1270,10 @@
         <v>0.413548279079566</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.2414264833758018</v>
+        <v>0.2414261194212968</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.3636863292778187</v>
+        <v>0.3636864051450315</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1335,10 +1335,10 @@
         <v>0.04339282011123644</v>
       </c>
       <c r="U6">
-        <v>0.002813531792510626</v>
+        <v>0.002811543931097559</v>
       </c>
       <c r="V6">
-        <v>1.997515402124657</v>
+        <v>1.998927788018716</v>
       </c>
       <c r="W6">
         <v>0.1814969380218558</v>
@@ -1347,10 +1347,10 @@
         <v>0.3098441651051433</v>
       </c>
       <c r="Y6">
-        <v>0.0005110649611273431</v>
+        <v>0.0005106998173672897</v>
       </c>
       <c r="Z6">
-        <v>2.008083298503632</v>
+        <v>2.009498076031131</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1">
@@ -1409,10 +1409,10 @@
         <v>0.1797637951548278</v>
       </c>
       <c r="U7" s="4">
-        <v>1.322200220349557</v>
+        <v>1.32219823094449</v>
       </c>
       <c r="V7" s="4">
-        <v>0.2209736404250356</v>
+        <v>0.2209739728222805</v>
       </c>
       <c r="W7" s="4">
         <v>0.1811370290506207</v>
@@ -1421,10 +1421,10 @@
         <v>0.3803973243849685</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.239667028579765</v>
+        <v>0.2396666663667818</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.3656704039744018</v>
+        <v>0.3656704898636055</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1486,10 +1486,10 @@
         <v>0.04774826555039949</v>
       </c>
       <c r="U8">
-        <v>0.003654896968490784</v>
+        <v>0.003652908602329808</v>
       </c>
       <c r="V8">
-        <v>1.936336394570503</v>
+        <v>1.937390319586194</v>
       </c>
       <c r="W8">
         <v>0.1804577480367137</v>
@@ -1498,10 +1498,10 @@
         <v>0.3852339957965794</v>
       </c>
       <c r="Y8">
-        <v>0.0006636456736421185</v>
+        <v>0.0006632840911626782</v>
       </c>
       <c r="Z8">
-        <v>1.939710498005037</v>
+        <v>1.940759177824897</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1">
@@ -1560,10 +1560,10 @@
         <v>0.133246697787821</v>
       </c>
       <c r="U9" s="4">
-        <v>1.319624247369094</v>
+        <v>1.319622257679337</v>
       </c>
       <c r="V9" s="4">
-        <v>0.2325179417830537</v>
+        <v>0.2325182917524557</v>
       </c>
       <c r="W9" s="4">
         <v>0.1803459092003151</v>
@@ -1572,10 +1572,10 @@
         <v>0.4297868006133961</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.2382822709433621</v>
+        <v>0.2382819122323587</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.3670470559826737</v>
+        <v>0.3670471312898169</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1637,10 +1637,10 @@
         <v>0.03310481896892375</v>
       </c>
       <c r="U10">
-        <v>0.003181029449791472</v>
+        <v>0.003179041188988946</v>
       </c>
       <c r="V10">
-        <v>2.136376476475425</v>
+        <v>2.1377126504212</v>
       </c>
       <c r="W10">
         <v>0.1138978916414677</v>
@@ -1649,10 +1649,10 @@
         <v>0.2496545418348033</v>
       </c>
       <c r="Y10">
-        <v>0.0003632314580999754</v>
+        <v>0.0003630052528144143</v>
       </c>
       <c r="Z10">
-        <v>2.136083829830561</v>
+        <v>2.137402394568339</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1">
@@ -1711,10 +1711,10 @@
         <v>0.1928091712527066</v>
       </c>
       <c r="U11" s="4">
-        <v>1.317301608640938</v>
+        <v>1.317299619129553</v>
       </c>
       <c r="V11" s="4">
-        <v>0.2453966400949428</v>
+        <v>0.2453970110927369</v>
       </c>
       <c r="W11" s="4">
         <v>0.1802190851860907</v>
@@ -1723,10 +1723,10 @@
         <v>0.4150400840242146</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.2367855739726799</v>
+        <v>0.2367852110607417</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.4260307905930146</v>
+        <v>0.4260308980406651</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1788,10 +1788,10 @@
         <v>0.04255887954161741</v>
       </c>
       <c r="U12">
-        <v>0.003398957315546118</v>
+        <v>0.003396968616918185</v>
       </c>
       <c r="V12">
-        <v>2.262906505247554</v>
+        <v>2.26423125468954</v>
       </c>
       <c r="W12">
         <v>0.2062557903627206</v>
@@ -1800,10 +1800,10 @@
         <v>0.36315465493538</v>
       </c>
       <c r="Y12">
-        <v>0.0007053640786390493</v>
+        <v>0.0007049510064866325</v>
       </c>
       <c r="Z12">
-        <v>2.296267033740035</v>
+        <v>2.297564997300947</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="4" customFormat="1">
@@ -1862,10 +1862,10 @@
         <v>0.1504506050698995</v>
       </c>
       <c r="U13" s="4">
-        <v>1.316501864523344</v>
+        <v>1.316499874313986</v>
       </c>
       <c r="V13" s="4">
-        <v>0.2613398733591065</v>
+        <v>0.2613402682972835</v>
       </c>
       <c r="W13" s="4">
         <v>0.180885832906079</v>
@@ -1874,10 +1874,10 @@
         <v>0.4128124328530886</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.238338541222346</v>
+        <v>0.2383381790433829</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.4768269205556759</v>
+        <v>0.4768270850367027</v>
       </c>
     </row>
   </sheetData>
@@ -1925,10 +1925,10 @@
     <col min="30" max="30" width="21.7109375" customWidth="1"/>
     <col min="31" max="31" width="22.7109375" customWidth="1"/>
     <col min="32" max="32" width="22.7109375" customWidth="1"/>
-    <col min="33" max="33" width="22.7109375" customWidth="1"/>
+    <col min="33" max="33" width="23.7109375" customWidth="1"/>
     <col min="34" max="34" width="19.7109375" customWidth="1"/>
     <col min="35" max="35" width="19.7109375" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="21.7109375" customWidth="1"/>
     <col min="37" max="37" width="20.7109375" customWidth="1"/>
     <col min="38" max="38" width="22.7109375" customWidth="1"/>
     <col min="39" max="39" width="23.7109375" customWidth="1"/>
@@ -1947,9 +1947,9 @@
     <col min="52" max="52" width="19.7109375" customWidth="1"/>
     <col min="53" max="53" width="12.7109375" customWidth="1"/>
     <col min="54" max="54" width="6.7109375" customWidth="1"/>
-    <col min="55" max="55" width="19.7109375" customWidth="1"/>
+    <col min="55" max="55" width="20.7109375" customWidth="1"/>
     <col min="56" max="56" width="20.7109375" customWidth="1"/>
-    <col min="57" max="57" width="19.7109375" customWidth="1"/>
+    <col min="57" max="57" width="18.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
     <col min="59" max="59" width="19.7109375" customWidth="1"/>
   </cols>
@@ -2335,94 +2335,94 @@
         <v>4.78714158866439</v>
       </c>
       <c r="L3" s="4">
-        <v>10.40023165849734</v>
+        <v>10.38477647929992</v>
       </c>
       <c r="M3" s="4">
-        <v>0.06620424170825219</v>
+        <v>0.06610585943631551</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>13.70104585233061</v>
+        <v>13.70097500561748</v>
       </c>
       <c r="P3" s="4">
-        <v>0.001458381816529189</v>
+        <v>0.001458374275385301</v>
       </c>
       <c r="Q3" s="4">
-        <v>10.40023165849734</v>
+        <v>10.38477647929992</v>
       </c>
       <c r="R3" s="4">
-        <v>0.06620424170825219</v>
+        <v>0.06610585943631551</v>
       </c>
       <c r="S3" s="4">
-        <v>1.000114366734304</v>
+        <v>0.9986281549590914</v>
       </c>
       <c r="T3" s="4">
-        <v>0.001672089322806292</v>
+        <v>0.001669604528143381</v>
       </c>
       <c r="U3" s="4">
-        <v>1.000114366734304</v>
+        <v>0.9986281549590914</v>
       </c>
       <c r="V3" s="4">
-        <v>0.001672089322806292</v>
+        <v>0.001669604528143381</v>
       </c>
       <c r="W3" s="4">
         <v>0</v>
       </c>
       <c r="X3" s="4">
-        <v>0.9308953049971663</v>
+        <v>0.9284286765323656</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.004344705994292121</v>
+        <v>0.004333193662648399</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.0002273033307682513</v>
+        <v>0.0002267010365437481</v>
       </c>
       <c r="AA3" s="4">
-        <v>1.06087777906925E-06</v>
+        <v>1.058066731131335E-06</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD3" s="4">
-        <v>224.6961553523945</v>
+        <v>224.0999456060541</v>
       </c>
       <c r="AE3" s="4">
-        <v>0.7659892043257855</v>
+        <v>0.7639578740113777</v>
       </c>
       <c r="AF3" s="4">
-        <v>10.24380633955038</v>
+        <v>10.23090547238425</v>
       </c>
       <c r="AG3" s="4">
-        <v>0.03492113630067952</v>
+        <v>0.03487720968765329</v>
       </c>
       <c r="AH3" s="4">
-        <v>45066.6794231648</v>
+        <v>45129.50460378652</v>
       </c>
       <c r="AI3" s="4">
-        <v>260.4696265987955</v>
+        <v>260.8328705916684</v>
       </c>
       <c r="AJ3" s="4">
-        <v>0.1143667343042054</v>
+        <v>-1.371845040908592</v>
       </c>
       <c r="AK3" s="4">
-        <v>1.672089322806292</v>
+        <v>1.669604528143381</v>
       </c>
       <c r="AL3" s="4">
-        <v>1.002044224632932</v>
+        <v>1.000787442962172</v>
       </c>
       <c r="AM3" s="4">
-        <v>0.003417633598299904</v>
+        <v>0.003413352269067698</v>
       </c>
       <c r="AN3" s="4">
-        <v>1.002044224632932</v>
+        <v>1.000787442962172</v>
       </c>
       <c r="AO3" s="4">
-        <v>0.003417633598299903</v>
+        <v>0.003413352269067698</v>
       </c>
       <c r="AP3" s="4" t="s">
         <v>118</v>
@@ -2434,16 +2434,16 @@
         <v>119</v>
       </c>
       <c r="AS3" s="4">
-        <v>2.223470283275118E-05</v>
+        <v>2.217590136981479E-05</v>
       </c>
       <c r="AT3" s="4">
-        <v>1.038015405713216E-07</v>
+        <v>1.035270290347133E-07</v>
       </c>
       <c r="AU3" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV3" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW3" s="4" t="s">
         <v>118</v>
@@ -2511,31 +2511,31 @@
         <v>0.4949480523225687</v>
       </c>
       <c r="L4">
-        <v>2.494533049558064</v>
+        <v>2.4908260691214</v>
       </c>
       <c r="M4">
-        <v>0.006844932384407318</v>
+        <v>0.006834760528619005</v>
       </c>
       <c r="N4">
         <v>0.005</v>
       </c>
       <c r="O4">
-        <v>2.882840036628364</v>
+        <v>2.88282512949779</v>
       </c>
       <c r="P4">
-        <v>0.0001619437037934368</v>
+        <v>0.000161942866384525</v>
       </c>
       <c r="Q4">
-        <v>2.494533049558064</v>
+        <v>2.4908260691214</v>
       </c>
       <c r="R4">
-        <v>0.006844932384407318</v>
+        <v>0.006834760528619005</v>
       </c>
       <c r="S4">
-        <v>1.146015048919254</v>
+        <v>1.144312022628535</v>
       </c>
       <c r="T4">
-        <v>0.0005483835799002634</v>
+        <v>0.0005475686589663281</v>
       </c>
       <c r="U4">
         <v>1.145906410988934</v>
@@ -2547,40 +2547,40 @@
         <v>0.003</v>
       </c>
       <c r="X4">
-        <v>0.1648649603714585</v>
+        <v>0.164348706667991</v>
       </c>
       <c r="Y4">
-        <v>0.0003275915424590783</v>
+        <v>0.0003265657311123974</v>
       </c>
       <c r="Z4">
-        <v>4.025625053455646E-05</v>
+        <v>4.013019319417705E-05</v>
       </c>
       <c r="AA4">
-        <v>7.999035802708682E-08</v>
+        <v>7.973987837100867E-08</v>
       </c>
       <c r="AB4">
         <v>0.05</v>
       </c>
       <c r="AC4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD4">
-        <v>0.06025788678615855</v>
+        <v>0.06000559140876052</v>
       </c>
       <c r="AE4">
-        <v>0.001276647021433962</v>
+        <v>0.001272073482228722</v>
       </c>
       <c r="AF4">
-        <v>0.002747132551956153</v>
+        <v>0.002739454183521929</v>
       </c>
       <c r="AG4">
-        <v>5.820181850029131E-05</v>
+        <v>5.807437175146347E-05</v>
       </c>
       <c r="AH4">
-        <v>68.24114306418033</v>
+        <v>68.26416634145255</v>
       </c>
       <c r="AI4">
-        <v>1.452128166415402</v>
+        <v>1.453492150015857</v>
       </c>
       <c r="AJ4">
         <v>145.9064109889343</v>
@@ -2589,49 +2589,49 @@
         <v>0.5483315951927344</v>
       </c>
       <c r="AL4">
-        <v>0.001277139448784195</v>
+        <v>0.001273576367863631</v>
       </c>
       <c r="AM4">
-        <v>2.705806810503453E-05</v>
+        <v>2.699895751420625E-05</v>
       </c>
       <c r="AN4">
-        <v>0.001275152828087398</v>
+        <v>0.001273192151676993</v>
       </c>
       <c r="AO4">
-        <v>2.701597863848178E-05</v>
+        <v>2.699081239094466E-05</v>
       </c>
       <c r="AP4">
-        <v>0.1218</v>
+        <v>0.1214</v>
       </c>
       <c r="AQ4">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="AR4">
-        <v>2.545155993431855</v>
+        <v>2.388797364085667</v>
       </c>
       <c r="AS4">
-        <v>1.871509461063766E-05</v>
+        <v>1.865658713963181E-05</v>
       </c>
       <c r="AT4">
-        <v>3.720230331112454E-08</v>
+        <v>3.70860007902124E-08</v>
       </c>
       <c r="AU4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW4">
-        <v>0.1202</v>
+        <v>0.107</v>
       </c>
       <c r="AX4">
-        <v>0.0026718929</v>
+        <v>0.007569934</v>
       </c>
       <c r="AY4">
-        <v>0.002663187902121503</v>
+        <v>0.007553433816179771</v>
       </c>
       <c r="AZ4">
-        <v>2.222872628951747</v>
+        <v>7.074704672897197</v>
       </c>
       <c r="BA4" t="s">
         <v>26</v>
@@ -2640,19 +2640,19 @@
         <v>30</v>
       </c>
       <c r="BC4">
-        <v>145.9559869192395</v>
+        <v>145.9504762272951</v>
       </c>
       <c r="BD4">
-        <v>0.5485190141196739</v>
+        <v>0.5485060589872911</v>
       </c>
       <c r="BE4">
-        <v>62.2</v>
+        <v>49</v>
       </c>
       <c r="BF4">
-        <v>1.331593951060752</v>
+        <v>3.776716908089885</v>
       </c>
       <c r="BG4">
-        <v>1107.815267105451</v>
+        <v>3529.641970177463</v>
       </c>
     </row>
     <row r="5" spans="1:59" s="4" customFormat="1">
@@ -2690,94 +2690,94 @@
         <v>6.385250074749045</v>
       </c>
       <c r="L5" s="4">
-        <v>10.34489129641446</v>
+        <v>10.3295183553095</v>
       </c>
       <c r="M5" s="4">
-        <v>0.08830543895282254</v>
+        <v>0.08817421337747602</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>13.70140446816101</v>
+        <v>13.70133361959352</v>
       </c>
       <c r="P5" s="4">
-        <v>0.001718799455033931</v>
+        <v>0.001718790567296949</v>
       </c>
       <c r="Q5" s="4">
-        <v>10.34489129641446</v>
+        <v>10.3295183553095</v>
       </c>
       <c r="R5" s="4">
-        <v>0.08830543895282254</v>
+        <v>0.08817421337747602</v>
       </c>
       <c r="S5" s="4">
-        <v>1.00007524374222</v>
+        <v>0.99858909010541</v>
       </c>
       <c r="T5" s="4">
-        <v>0.001847658475256469</v>
+        <v>0.001844912777490458</v>
       </c>
       <c r="U5" s="4">
-        <v>1.00007524374222</v>
+        <v>0.99858909010541</v>
       </c>
       <c r="V5" s="4">
-        <v>0.001847658475256469</v>
+        <v>0.001844912777490458</v>
       </c>
       <c r="W5" s="4">
         <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>0.9350241754877243</v>
+        <v>0.9325466065987698</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.003866776386707385</v>
+        <v>0.003856530443204103</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.0002283115064565124</v>
+        <v>0.0002277065408307927</v>
       </c>
       <c r="AA5" s="4">
-        <v>9.441783058915393E-07</v>
+        <v>9.416764809573525E-07</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD5" s="4">
-        <v>224.4839473616327</v>
+        <v>223.888300042505</v>
       </c>
       <c r="AE5" s="4">
-        <v>0.640413198163658</v>
+        <v>0.6387148834124329</v>
       </c>
       <c r="AF5" s="4">
-        <v>10.23413186355563</v>
+        <v>10.22124315074261</v>
       </c>
       <c r="AG5" s="4">
-        <v>0.02919617725097272</v>
+        <v>0.02915945195044704</v>
       </c>
       <c r="AH5" s="4">
-        <v>44825.30040817269</v>
+        <v>44887.78896491143</v>
       </c>
       <c r="AI5" s="4">
-        <v>225.203410377069</v>
+        <v>225.517463967919</v>
       </c>
       <c r="AJ5" s="4">
-        <v>0.07524374222045438</v>
+        <v>-1.410909894590029</v>
       </c>
       <c r="AK5" s="4">
-        <v>1.847658475256469</v>
+        <v>1.844912777490458</v>
       </c>
       <c r="AL5" s="4">
-        <v>1.001071669639563</v>
+        <v>0.9998161048780049</v>
       </c>
       <c r="AM5" s="4">
-        <v>0.002858641065203783</v>
+        <v>0.002855059991423288</v>
       </c>
       <c r="AN5" s="4">
-        <v>1.001071669639563</v>
+        <v>0.9998161048780049</v>
       </c>
       <c r="AO5" s="4">
-        <v>0.002858641065203783</v>
+        <v>0.002855059991423289</v>
       </c>
       <c r="AP5" s="4" t="s">
         <v>118</v>
@@ -2789,16 +2789,16 @@
         <v>119</v>
       </c>
       <c r="AS5" s="4">
-        <v>2.233273755053395E-05</v>
+        <v>2.227367682688841E-05</v>
       </c>
       <c r="AT5" s="4">
-        <v>9.239913392535709E-08</v>
+        <v>9.215477697173662E-08</v>
       </c>
       <c r="AU5" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV5" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="4" t="s">
         <v>118</v>
@@ -2866,127 +2866,127 @@
         <v>0.515698033670833</v>
       </c>
       <c r="L6">
-        <v>2.498781508865185</v>
+        <v>2.495068215040313</v>
       </c>
       <c r="M6">
-        <v>0.007131896276153311</v>
+        <v>0.007121297980020614</v>
       </c>
       <c r="N6">
         <v>0.005</v>
       </c>
       <c r="O6">
-        <v>2.894233252161722</v>
+        <v>2.89421828608744</v>
       </c>
       <c r="P6">
-        <v>0.0001723385360822908</v>
+        <v>0.00017233764492007</v>
       </c>
       <c r="Q6">
-        <v>2.498781508865185</v>
+        <v>2.495068215040313</v>
       </c>
       <c r="R6">
-        <v>0.007131896276153311</v>
+        <v>0.007121297980020614</v>
       </c>
       <c r="S6">
-        <v>1.145956643442365</v>
+        <v>1.144253703944627</v>
       </c>
       <c r="T6">
-        <v>0.0004972629048417086</v>
+        <v>0.0004965239513688518</v>
       </c>
       <c r="U6">
         <v>1.144474615098591</v>
       </c>
       <c r="V6">
-        <v>0.0004966198109484972</v>
+        <v>0.0004966198109484973</v>
       </c>
       <c r="W6">
         <v>0.003</v>
       </c>
       <c r="X6">
-        <v>0.08206535589386277</v>
+        <v>0.08175910603621016</v>
       </c>
       <c r="Y6">
-        <v>0.0002542747168099036</v>
+        <v>0.0002533258194953242</v>
       </c>
       <c r="Z6">
-        <v>2.003848191651771E-05</v>
+        <v>1.996370270953486E-05</v>
       </c>
       <c r="AA6">
-        <v>6.208806699397941E-08</v>
+        <v>6.185636798443117E-08</v>
       </c>
       <c r="AB6">
         <v>0.05</v>
       </c>
       <c r="AC6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD6">
-        <v>0.05697928276837074</v>
+        <v>0.05672586965520593</v>
       </c>
       <c r="AE6">
-        <v>0.001138169949318366</v>
+        <v>0.001133909171533188</v>
       </c>
       <c r="AF6">
-        <v>0.002597662328179437</v>
+        <v>0.002589724012255734</v>
       </c>
       <c r="AG6">
-        <v>5.188870510057422E-05</v>
+        <v>5.176671291397309E-05</v>
       </c>
       <c r="AH6">
-        <v>129.6336887695163</v>
+        <v>129.7216277929673</v>
       </c>
       <c r="AI6">
-        <v>2.620419626504751</v>
+        <v>2.624007762191912</v>
       </c>
       <c r="AJ6">
-        <v>144.4746150985909</v>
+        <v>144.4746150985912</v>
       </c>
       <c r="AK6">
-        <v>0.4966198109484972</v>
+        <v>0.4966198109484973</v>
       </c>
       <c r="AL6">
-        <v>0.001202896931038906</v>
+        <v>0.001199227144118467</v>
       </c>
       <c r="AM6">
-        <v>2.402815822832558E-05</v>
+        <v>2.397179098348359E-05</v>
       </c>
       <c r="AN6">
-        <v>0.001202215160090243</v>
+        <v>0.001200052585909841</v>
       </c>
       <c r="AO6">
-        <v>2.40145396881105E-05</v>
+        <v>2.398829104203286E-05</v>
       </c>
       <c r="AP6">
-        <v>0.1147</v>
+        <v>0.1143</v>
       </c>
       <c r="AQ6">
-        <v>0.0052</v>
+        <v>0.0049</v>
       </c>
       <c r="AR6">
-        <v>4.533565823888405</v>
+        <v>4.286964129483815</v>
       </c>
       <c r="AS6">
-        <v>9.279200047895037E-06</v>
+        <v>9.244619918217538E-06</v>
       </c>
       <c r="AT6">
-        <v>2.875636869854111E-08</v>
+        <v>2.864920440059336E-08</v>
       </c>
       <c r="AU6">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV6">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW6">
-        <v>0.1141</v>
+        <v>0.1074</v>
       </c>
       <c r="AX6">
-        <v>0.0023776868</v>
+        <v>0.0042007906</v>
       </c>
       <c r="AY6">
-        <v>0.002318047539323532</v>
+        <v>0.004201312601678477</v>
       </c>
       <c r="AZ6">
-        <v>2.083862226117441</v>
+        <v>3.911350651769088</v>
       </c>
       <c r="BA6" t="s">
         <v>27</v>
@@ -2995,19 +2995,19 @@
         <v>47.5</v>
       </c>
       <c r="BC6">
-        <v>144.5212129054278</v>
+        <v>144.5184110579224</v>
       </c>
       <c r="BD6">
-        <v>0.4967809364669083</v>
+        <v>0.4967733103978625</v>
       </c>
       <c r="BE6">
-        <v>56.09999999999999</v>
+        <v>49.39999999999999</v>
       </c>
       <c r="BF6">
-        <v>1.159023769661766</v>
+        <v>2.100656300839239</v>
       </c>
       <c r="BG6">
-        <v>1015.796467714081</v>
+        <v>1955.918343425735</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="4" customFormat="1">
@@ -3045,97 +3045,97 @@
         <v>5.229142006527293</v>
       </c>
       <c r="L7" s="4">
-        <v>10.51311112792597</v>
+        <v>10.49748820511619</v>
       </c>
       <c r="M7" s="4">
-        <v>0.07231692961550673</v>
+        <v>0.0722094636336983</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>13.70348548121096</v>
+        <v>13.70341462188276</v>
       </c>
       <c r="P7" s="4">
-        <v>0.001771577620583448</v>
+        <v>0.001771568459935945</v>
       </c>
       <c r="Q7" s="4">
-        <v>10.51311112792597</v>
+        <v>10.49748820511619</v>
       </c>
       <c r="R7" s="4">
-        <v>0.07231692961550673</v>
+        <v>0.0722094636336983</v>
       </c>
       <c r="S7" s="4">
-        <v>1.002514640426851</v>
+        <v>1.001024861744548</v>
       </c>
       <c r="T7" s="4">
-        <v>0.001802158364614082</v>
+        <v>0.001799480281915367</v>
       </c>
       <c r="U7" s="4">
-        <v>1.002514640426851</v>
+        <v>1.001024861744548</v>
       </c>
       <c r="V7" s="4">
-        <v>0.001802158364614082</v>
+        <v>0.001799480281915367</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0.9446978553457307</v>
+        <v>0.9421946537417234</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.00359360536525734</v>
+        <v>0.003584083253331734</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.0002306735977042681</v>
+        <v>0.0002300623731561144</v>
       </c>
       <c r="AA7" s="4">
-        <v>8.77476193729582E-07</v>
+        <v>8.751511119024211E-07</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD7" s="4">
-        <v>224.2917133068922</v>
+        <v>223.6965752923323</v>
       </c>
       <c r="AE7" s="4">
-        <v>0.4956255640659236</v>
+        <v>0.4943112094908507</v>
       </c>
       <c r="AF7" s="4">
-        <v>10.22536799118078</v>
+        <v>10.2124902802748</v>
       </c>
       <c r="AG7" s="4">
-        <v>0.02259536789696849</v>
+        <v>0.02256694549641248</v>
       </c>
       <c r="AH7" s="4">
-        <v>44328.29804948058</v>
+        <v>44390.09360885307</v>
       </c>
       <c r="AI7" s="4">
-        <v>195.0099897970511</v>
+        <v>195.2819162490503</v>
       </c>
       <c r="AJ7" s="4">
-        <v>2.514640426850789</v>
+        <v>1.024861744547856</v>
       </c>
       <c r="AK7" s="4">
-        <v>1.802158364614082</v>
+        <v>1.799480281915367</v>
       </c>
       <c r="AL7" s="4">
-        <v>1.000062521595576</v>
+        <v>0.9988082190873528</v>
       </c>
       <c r="AM7" s="4">
-        <v>0.002213653272754594</v>
+        <v>0.002210880169832022</v>
       </c>
       <c r="AN7" s="4">
-        <v>1.000062521595576</v>
+        <v>0.9988082190873528</v>
       </c>
       <c r="AO7" s="4">
-        <v>0.002213653272754594</v>
+        <v>0.002210880169832023</v>
       </c>
       <c r="AP7" s="4">
-        <v>617.4591</v>
+        <v>647.074</v>
       </c>
       <c r="AQ7" s="4" t="s">
         <v>119</v>
@@ -3144,25 +3144,25 @@
         <v>119</v>
       </c>
       <c r="AS7" s="4">
-        <v>2.256036359616776E-05</v>
+        <v>2.25007008971063E-05</v>
       </c>
       <c r="AT7" s="4">
-        <v>8.586856583147189E-08</v>
+        <v>8.564147949129815E-08</v>
       </c>
       <c r="AU7" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV7" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="4">
-        <v>617.4573</v>
+        <v>647.0545</v>
       </c>
       <c r="AX7" s="4" t="s">
         <v>119</v>
       </c>
       <c r="AY7" s="4">
-        <v>103.9089916358842</v>
+        <v>138.3157633590242</v>
       </c>
       <c r="AZ7" s="4" t="s">
         <v>118</v>
@@ -3171,19 +3171,19 @@
         <v>25</v>
       </c>
       <c r="BC7" s="4">
-        <v>14.40030502845515</v>
+        <v>6.363701625122824</v>
       </c>
       <c r="BD7" s="4" t="s">
         <v>119</v>
       </c>
       <c r="BE7" s="4">
-        <v>617399.3</v>
+        <v>646996.5</v>
       </c>
       <c r="BF7" s="4">
-        <v>51954.49581794211</v>
+        <v>69157.88167951211</v>
       </c>
       <c r="BG7" s="4">
-        <v>8414.265378017573</v>
+        <v>10688.10767555316</v>
       </c>
     </row>
     <row r="8" spans="1:59">
@@ -3221,31 +3221,31 @@
         <v>0.602584122308381</v>
       </c>
       <c r="L8">
-        <v>2.391626369770513</v>
+        <v>2.388072312963721</v>
       </c>
       <c r="M8">
-        <v>0.008333495916921346</v>
+        <v>0.008321111993469811</v>
       </c>
       <c r="N8">
         <v>0.005</v>
       </c>
       <c r="O8">
-        <v>2.755638310601177</v>
+        <v>2.755624061240332</v>
       </c>
       <c r="P8">
-        <v>0.0001972308851365691</v>
+        <v>0.0001972298652588728</v>
       </c>
       <c r="Q8">
-        <v>2.391626369770513</v>
+        <v>2.388072312963721</v>
       </c>
       <c r="R8">
-        <v>0.008333495916921346</v>
+        <v>0.008321111993469811</v>
       </c>
       <c r="S8">
-        <v>1.146358704091157</v>
+        <v>1.14465516711448</v>
       </c>
       <c r="T8">
-        <v>0.0005473663981895642</v>
+        <v>0.0005465529888301912</v>
       </c>
       <c r="U8">
         <v>1.144520259535133</v>
@@ -3257,40 +3257,40 @@
         <v>0.003</v>
       </c>
       <c r="X8">
-        <v>0.06829703125084907</v>
+        <v>0.06804359221735705</v>
       </c>
       <c r="Y8">
-        <v>0.0002631033824980844</v>
+        <v>0.0002621270491824548</v>
       </c>
       <c r="Z8">
-        <v>1.667657211457157E-05</v>
+        <v>1.661468810231995E-05</v>
       </c>
       <c r="AA8">
-        <v>6.424382511886218E-08</v>
+        <v>6.400542686570602E-08</v>
       </c>
       <c r="AB8">
         <v>0.05</v>
       </c>
       <c r="AC8">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD8">
-        <v>0.06128399097454247</v>
+        <v>0.06103732208025073</v>
       </c>
       <c r="AE8">
-        <v>0.001186664221285368</v>
+        <v>0.001182531169317425</v>
       </c>
       <c r="AF8">
-        <v>0.002793912224592392</v>
+        <v>0.002786556109157964</v>
       </c>
       <c r="AG8">
-        <v>5.409953923713687E-05</v>
+        <v>5.398646830866411E-05</v>
       </c>
       <c r="AH8">
-        <v>167.5351628258868</v>
+        <v>167.716426092216</v>
       </c>
       <c r="AI8">
-        <v>3.307622693930106</v>
+        <v>3.31293499542288</v>
       </c>
       <c r="AJ8">
         <v>144.5202595351331</v>
@@ -3299,49 +3299,49 @@
         <v>0.5464885728009569</v>
       </c>
       <c r="AL8">
-        <v>0.001358844602073594</v>
+        <v>0.001355273896577442</v>
       </c>
       <c r="AM8">
-        <v>2.631198232313543E-05</v>
+        <v>2.625712445384228E-05</v>
       </c>
       <c r="AN8">
-        <v>0.001360027298009095</v>
+        <v>0.00135815692283316</v>
       </c>
       <c r="AO8">
-        <v>2.633488345141829E-05</v>
+        <v>2.631298030659E-05</v>
       </c>
       <c r="AP8">
-        <v>0.1295</v>
+        <v>0.1292</v>
       </c>
       <c r="AQ8">
         <v>0.0026</v>
       </c>
       <c r="AR8">
-        <v>2.007722007722008</v>
+        <v>2.012383900928792</v>
       </c>
       <c r="AS8">
-        <v>8.110802408004294E-06</v>
+        <v>8.080746341639002E-06</v>
       </c>
       <c r="AT8">
-        <v>3.125096054626335E-08</v>
+        <v>3.113515437852455E-08</v>
       </c>
       <c r="AU8">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV8">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW8">
-        <v>0.1293</v>
+        <v>0.1233</v>
       </c>
       <c r="AX8">
-        <v>0.0025265543</v>
+        <v>0.0039732049</v>
       </c>
       <c r="AY8">
-        <v>0.002532899142229332</v>
+        <v>0.003973296768663629</v>
       </c>
       <c r="AZ8">
-        <v>1.95402498066512</v>
+        <v>3.222388402270884</v>
       </c>
       <c r="BA8" t="s">
         <v>28</v>
@@ -3350,19 +3350,19 @@
         <v>70</v>
       </c>
       <c r="BC8">
-        <v>144.5730827553311</v>
+        <v>144.5705562673678</v>
       </c>
       <c r="BD8">
-        <v>0.5466892931645707</v>
+        <v>0.5466811681316688</v>
       </c>
       <c r="BE8">
-        <v>71.30000000000001</v>
+        <v>65.30000000000001</v>
       </c>
       <c r="BF8">
-        <v>1.266449571114666</v>
+        <v>1.986648384331814</v>
       </c>
       <c r="BG8">
-        <v>979.4660256107239</v>
+        <v>1611.231455256946</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="4" customFormat="1">
@@ -3400,97 +3400,97 @@
         <v>6.432021168896118</v>
       </c>
       <c r="L9" s="4">
-        <v>10.43349082855542</v>
+        <v>10.41798622484034</v>
       </c>
       <c r="M9" s="4">
-        <v>0.0889522643630432</v>
+        <v>0.08882007757808592</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>13.70232996426819</v>
+        <v>13.70225911091505</v>
       </c>
       <c r="P9" s="4">
-        <v>0.001644691398066958</v>
+        <v>0.001644682893535193</v>
       </c>
       <c r="Q9" s="4">
-        <v>10.43349082855542</v>
+        <v>10.41798622484034</v>
       </c>
       <c r="R9" s="4">
-        <v>0.0889522643630432</v>
+        <v>0.08882007757808592</v>
       </c>
       <c r="S9" s="4">
-        <v>1.000697962479403</v>
+        <v>0.9992108834565061</v>
       </c>
       <c r="T9" s="4">
-        <v>0.001333396989833812</v>
+        <v>0.001331415506142307</v>
       </c>
       <c r="U9" s="4">
-        <v>1.000697962479403</v>
+        <v>0.9992108834565061</v>
       </c>
       <c r="V9" s="4">
-        <v>0.001333396989833812</v>
+        <v>0.001331415506142307</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>0.9488419428341529</v>
+        <v>0.9463277604849375</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.004077997428984894</v>
+        <v>0.004067191805104615</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.0002316854890351801</v>
+        <v>0.0002310715832403312</v>
       </c>
       <c r="AA9" s="4">
-        <v>9.957536508098015E-07</v>
+        <v>9.9311516473534E-07</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD9" s="4">
-        <v>223.8547221464317</v>
+        <v>223.260741995695</v>
       </c>
       <c r="AE9" s="4">
-        <v>0.5205023925190567</v>
+        <v>0.5191220634422475</v>
       </c>
       <c r="AF9" s="4">
-        <v>10.20544574189782</v>
+        <v>10.19259304537117</v>
       </c>
       <c r="AG9" s="4">
-        <v>0.0237294923888471</v>
+        <v>0.02369964323437666</v>
       </c>
       <c r="AH9" s="4">
-        <v>44048.70492492595</v>
+        <v>44110.11039280472</v>
       </c>
       <c r="AI9" s="4">
-        <v>215.2451075129761</v>
+        <v>215.5452403359773</v>
       </c>
       <c r="AJ9" s="4">
-        <v>0.6979624794027917</v>
+        <v>-0.7891165434938952</v>
       </c>
       <c r="AK9" s="4">
-        <v>1.333396989833812</v>
+        <v>1.331415506142307</v>
       </c>
       <c r="AL9" s="4">
-        <v>0.9981982545855603</v>
+        <v>0.996946282903914</v>
       </c>
       <c r="AM9" s="4">
-        <v>0.002324080483473825</v>
+        <v>0.002321169032919463</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.9981982545855603</v>
+        <v>0.996946282903914</v>
       </c>
       <c r="AO9" s="4">
-        <v>0.002324080483473824</v>
+        <v>0.002321169032919463</v>
       </c>
       <c r="AP9" s="4">
-        <v>642.115</v>
+        <v>681.6232</v>
       </c>
       <c r="AQ9" s="4" t="s">
         <v>119</v>
@@ -3499,25 +3499,25 @@
         <v>119</v>
       </c>
       <c r="AS9" s="4">
-        <v>2.266123955941114E-05</v>
+        <v>2.2601310085738E-05</v>
       </c>
       <c r="AT9" s="4">
-        <v>9.743299132001371E-08</v>
+        <v>9.717532192497028E-08</v>
       </c>
       <c r="AU9" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV9" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="4">
-        <v>642.1132</v>
+        <v>681.6034</v>
       </c>
       <c r="AX9" s="4" t="s">
         <v>119</v>
       </c>
       <c r="AY9" s="4">
-        <v>116.7139883912944</v>
+        <v>170.4248265220305</v>
       </c>
       <c r="AZ9" s="4" t="s">
         <v>118</v>
@@ -3526,19 +3526,19 @@
         <v>25</v>
       </c>
       <c r="BC9" s="4">
-        <v>4.285403036094117</v>
+        <v>-5.401689075826549</v>
       </c>
       <c r="BD9" s="4" t="s">
         <v>119</v>
       </c>
       <c r="BE9" s="4">
-        <v>642055.2</v>
+        <v>681545.3999999999</v>
       </c>
       <c r="BF9" s="4">
-        <v>58356.99419564722</v>
+        <v>85212.41326101523</v>
       </c>
       <c r="BG9" s="4">
-        <v>9088.272004943556</v>
+        <v>12501.75883233787</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -3576,31 +3576,31 @@
         <v>0.5842383721546202</v>
       </c>
       <c r="L10">
-        <v>2.46877500107601</v>
+        <v>2.46510629817663</v>
       </c>
       <c r="M10">
-        <v>0.008079781575073844</v>
+        <v>0.008067774681745001</v>
       </c>
       <c r="N10">
         <v>0.005</v>
       </c>
       <c r="O10">
-        <v>2.853939855296876</v>
+        <v>2.853925097618624</v>
       </c>
       <c r="P10">
-        <v>0.0001451909346112916</v>
+        <v>0.0001451901838312448</v>
       </c>
       <c r="Q10">
-        <v>2.46877500107601</v>
+        <v>2.46510629817663</v>
       </c>
       <c r="R10">
-        <v>0.008079781575073844</v>
+        <v>0.008067774681745001</v>
       </c>
       <c r="S10">
-        <v>1.145993042881479</v>
+        <v>1.144290049292652</v>
       </c>
       <c r="T10">
-        <v>0.0003793789222423742</v>
+        <v>0.0003788151492977407</v>
       </c>
       <c r="U10">
         <v>1.14518991555995</v>
@@ -3612,40 +3612,40 @@
         <v>0.003</v>
       </c>
       <c r="X10">
-        <v>0.1295900854374632</v>
+        <v>0.1291711212722189</v>
       </c>
       <c r="Y10">
-        <v>0.0003235275340622288</v>
+        <v>0.0003224815709950363</v>
       </c>
       <c r="Z10">
-        <v>3.164293330984982E-05</v>
+        <v>3.154063184831989E-05</v>
       </c>
       <c r="AA10">
-        <v>7.899802017779792E-08</v>
+        <v>7.874261993272505E-08</v>
       </c>
       <c r="AB10">
         <v>0.05</v>
       </c>
       <c r="AC10">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD10">
-        <v>0.05548268026115982</v>
+        <v>0.05524772930731022</v>
       </c>
       <c r="AE10">
-        <v>0.001185318929617492</v>
+        <v>0.001181037698472831</v>
       </c>
       <c r="AF10">
-        <v>0.002529432828537529</v>
+        <v>0.002522242004915927</v>
       </c>
       <c r="AG10">
-        <v>5.403820793712274E-05</v>
+        <v>5.391828641332506E-05</v>
       </c>
       <c r="AH10">
-        <v>79.93673670418434</v>
+        <v>79.96802400933139</v>
       </c>
       <c r="AI10">
-        <v>1.719370610331665</v>
+        <v>1.721104867873264</v>
       </c>
       <c r="AJ10">
         <v>145.1899155599503</v>
@@ -3654,49 +3654,49 @@
         <v>0.3791130483964922</v>
       </c>
       <c r="AL10">
-        <v>0.001187839010041033</v>
+        <v>0.001184468274800898</v>
       </c>
       <c r="AM10">
-        <v>2.537678514020011E-05</v>
+        <v>2.532059985290774E-05</v>
       </c>
       <c r="AN10">
-        <v>0.001190813506301221</v>
+        <v>0.00118892552192761</v>
       </c>
       <c r="AO10">
-        <v>2.544033175877136E-05</v>
+        <v>2.541588325841723E-05</v>
       </c>
       <c r="AP10">
-        <v>0.1132</v>
+        <v>0.1129</v>
       </c>
       <c r="AQ10">
-        <v>0.004</v>
+        <v>0.0038</v>
       </c>
       <c r="AR10">
-        <v>3.53356890459364</v>
+        <v>3.365810451727192</v>
       </c>
       <c r="AS10">
-        <v>1.485973857597886E-05</v>
+        <v>1.481177369923113E-05</v>
       </c>
       <c r="AT10">
-        <v>3.710571394897759E-08</v>
+        <v>3.698594259586131E-08</v>
       </c>
       <c r="AU10">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV10">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW10">
-        <v>0.1125</v>
+        <v>0.102</v>
       </c>
       <c r="AX10">
-        <v>0.0024774785</v>
+        <v>0.0061537031</v>
       </c>
       <c r="AY10">
-        <v>0.002485978377922835</v>
+        <v>0.006140104672562379</v>
       </c>
       <c r="AZ10">
-        <v>2.202203111111111</v>
+        <v>6.033042254901962</v>
       </c>
       <c r="BA10" t="s">
         <v>29</v>
@@ -3705,19 +3705,19 @@
         <v>83.5</v>
       </c>
       <c r="BC10">
-        <v>145.2360873039804</v>
+        <v>145.2317151027403</v>
       </c>
       <c r="BD10">
-        <v>0.3792349734129504</v>
+        <v>0.3792305804964585</v>
       </c>
       <c r="BE10">
-        <v>54.5</v>
+        <v>44</v>
       </c>
       <c r="BF10">
-        <v>1.242989188961417</v>
+        <v>3.07005233628119</v>
       </c>
       <c r="BG10">
-        <v>1104.879279076815</v>
+        <v>3009.855231648225</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="4" customFormat="1">
@@ -3755,97 +3755,97 @@
         <v>7.027047736684282</v>
       </c>
       <c r="L11" s="4">
-        <v>10.54823824316198</v>
+        <v>10.53256311998988</v>
       </c>
       <c r="M11" s="4">
-        <v>0.09718124234229489</v>
+        <v>0.09703682695191253</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>13.69731644497772</v>
+        <v>13.69724561754897</v>
       </c>
       <c r="P11" s="4">
-        <v>0.001369559056425418</v>
+        <v>0.001369551974574979</v>
       </c>
       <c r="Q11" s="4">
-        <v>10.54823824316198</v>
+        <v>10.53256311998988</v>
       </c>
       <c r="R11" s="4">
-        <v>0.09718124234229489</v>
+        <v>0.09703682695191253</v>
       </c>
       <c r="S11" s="4">
-        <v>1.00070464735957</v>
+        <v>0.9992175584026617</v>
       </c>
       <c r="T11" s="4">
-        <v>0.001929450337261307</v>
+        <v>0.001926583093367701</v>
       </c>
       <c r="U11" s="4">
-        <v>1.00070464735957</v>
+        <v>0.9992175584026617</v>
       </c>
       <c r="V11" s="4">
-        <v>0.001929450337261307</v>
+        <v>0.001926583093367701</v>
       </c>
       <c r="W11" s="4">
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>0.9495096631476283</v>
+        <v>0.9469937115146677</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.003940845703745954</v>
+        <v>0.003930403495974505</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.0002318485310555446</v>
+        <v>0.0002312341932420937</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.622643381018397E-07</v>
+        <v>9.597145899247003E-07</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD11" s="4">
-        <v>223.4607069138011</v>
+        <v>222.8677708302938</v>
       </c>
       <c r="AE11" s="4">
-        <v>0.5483650666988755</v>
+        <v>0.5469108483065515</v>
       </c>
       <c r="AF11" s="4">
-        <v>10.1874827476865</v>
+        <v>10.17465260885871</v>
       </c>
       <c r="AG11" s="4">
-        <v>0.02499974037307463</v>
+        <v>0.02496829339120844</v>
       </c>
       <c r="AH11" s="4">
-        <v>43940.25142754022</v>
+        <v>44001.50542703786</v>
       </c>
       <c r="AI11" s="4">
-        <v>211.8620960698193</v>
+        <v>212.1575211307358</v>
       </c>
       <c r="AJ11" s="4">
-        <v>0.7046473595699876</v>
+        <v>-0.7824415973383125</v>
       </c>
       <c r="AK11" s="4">
-        <v>1.929450337261307</v>
+        <v>1.926583093367701</v>
       </c>
       <c r="AL11" s="4">
-        <v>0.996806007216227</v>
+        <v>0.9955557753924129</v>
       </c>
       <c r="AM11" s="4">
-        <v>0.002448158106032126</v>
+        <v>0.002445091223899502</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.996806007216227</v>
+        <v>0.9955557753924129</v>
       </c>
       <c r="AO11" s="4">
-        <v>0.002448158106032126</v>
+        <v>0.002445091223899502</v>
       </c>
       <c r="AP11" s="4">
-        <v>597.8621000000001</v>
+        <v>621.8912</v>
       </c>
       <c r="AQ11" s="4" t="s">
         <v>119</v>
@@ -3854,25 +3854,25 @@
         <v>119</v>
       </c>
       <c r="AS11" s="4">
-        <v>2.268548710650899E-05</v>
+        <v>2.26254935082441E-05</v>
       </c>
       <c r="AT11" s="4">
-        <v>9.418118317086215E-08</v>
+        <v>9.393211344444472E-08</v>
       </c>
       <c r="AU11" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV11" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="4">
-        <v>597.8603000000001</v>
+        <v>621.8714</v>
       </c>
       <c r="AX11" s="4" t="s">
         <v>119</v>
       </c>
       <c r="AY11" s="4">
-        <v>95.15065789542476</v>
+        <v>120.3321386011445</v>
       </c>
       <c r="AZ11" s="4" t="s">
         <v>118</v>
@@ -3881,19 +3881,19 @@
         <v>25</v>
       </c>
       <c r="BC11" s="4">
-        <v>3.817801622193539</v>
+        <v>-4.525134419137371</v>
       </c>
       <c r="BD11" s="4" t="s">
         <v>119</v>
       </c>
       <c r="BE11" s="4">
-        <v>597802.3</v>
+        <v>621813.4</v>
       </c>
       <c r="BF11" s="4">
-        <v>47575.32894771238</v>
+        <v>60166.06930057224</v>
       </c>
       <c r="BG11" s="4">
-        <v>7957.599617789035</v>
+        <v>9675.001825228212</v>
       </c>
     </row>
     <row r="12" spans="1:59">
@@ -3931,31 +3931,31 @@
         <v>0.6104534619359627</v>
       </c>
       <c r="L12">
-        <v>2.359596720214717</v>
+        <v>2.356090260806692</v>
       </c>
       <c r="M12">
-        <v>0.00844232571715587</v>
+        <v>0.008429780068069768</v>
       </c>
       <c r="N12">
         <v>0.005</v>
       </c>
       <c r="O12">
-        <v>2.734917498207005</v>
+        <v>2.734903355941235</v>
       </c>
       <c r="P12">
-        <v>0.000175883451104777</v>
+        <v>0.0001758825416109763</v>
       </c>
       <c r="Q12">
-        <v>2.359596720214717</v>
+        <v>2.356090260806692</v>
       </c>
       <c r="R12">
-        <v>0.00844232571715587</v>
+        <v>0.008429780068069768</v>
       </c>
       <c r="S12">
-        <v>1.146960467703163</v>
+        <v>1.145256036480591</v>
       </c>
       <c r="T12">
-        <v>0.0004881335238397607</v>
+        <v>0.0004874081370088768</v>
       </c>
       <c r="U12">
         <v>1.145914439321799</v>
@@ -3967,40 +3967,40 @@
         <v>0.003</v>
       </c>
       <c r="X12">
-        <v>0.06670335028671695</v>
+        <v>0.06643871873194153</v>
       </c>
       <c r="Y12">
-        <v>0.0002422363215640647</v>
+        <v>0.0002412752997544699</v>
       </c>
       <c r="Z12">
-        <v>1.628743169310356E-05</v>
+        <v>1.622281472328544E-05</v>
       </c>
       <c r="AA12">
-        <v>5.914856636292595E-08</v>
+        <v>5.891390682915326E-08</v>
       </c>
       <c r="AB12">
         <v>0.05</v>
       </c>
       <c r="AC12">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD12">
-        <v>0.0679031344882874</v>
+        <v>0.06762259338504671</v>
       </c>
       <c r="AE12">
-        <v>0.001536584447602451</v>
+        <v>0.001531131894655849</v>
       </c>
       <c r="AF12">
-        <v>0.003095676285406668</v>
+        <v>0.003087195576281298</v>
       </c>
       <c r="AG12">
-        <v>7.005226004387333E-05</v>
+        <v>6.9901247131554E-05</v>
       </c>
       <c r="AH12">
-        <v>190.0653426357847</v>
+        <v>190.2996261092773</v>
       </c>
       <c r="AI12">
-        <v>4.356033591580113</v>
+        <v>4.363892205478165</v>
       </c>
       <c r="AJ12">
         <v>145.9144393217995</v>
@@ -4009,49 +4009,49 @@
         <v>0.4876883458809652</v>
       </c>
       <c r="AL12">
-        <v>0.001517017392281909</v>
+        <v>0.001512869295251063</v>
       </c>
       <c r="AM12">
-        <v>3.432882388483839E-05</v>
+        <v>3.425499759487927E-05</v>
       </c>
       <c r="AN12">
-        <v>0.001522389152914374</v>
+        <v>0.001520132977891339</v>
       </c>
       <c r="AO12">
-        <v>3.445038229652278E-05</v>
+        <v>3.441946483084846E-05</v>
       </c>
       <c r="AP12">
-        <v>0.1445</v>
+        <v>0.1441</v>
       </c>
       <c r="AQ12">
-        <v>0.0056</v>
+        <v>0.0052</v>
       </c>
       <c r="AR12">
-        <v>3.875432525951557</v>
+        <v>3.608605135322692</v>
       </c>
       <c r="AS12">
-        <v>7.981557138425357E-06</v>
+        <v>7.949933093312102E-06</v>
       </c>
       <c r="AT12">
-        <v>2.898994086154279E-08</v>
+        <v>2.887507866338569E-08</v>
       </c>
       <c r="AU12">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV12">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW12">
-        <v>0.1446</v>
+        <v>0.1387</v>
       </c>
       <c r="AX12">
-        <v>0.0032872178</v>
+        <v>0.0044557804</v>
       </c>
       <c r="AY12">
-        <v>0.003300004180780491</v>
+        <v>0.004462744331656388</v>
       </c>
       <c r="AZ12">
-        <v>2.273317980636238</v>
+        <v>3.212530930064888</v>
       </c>
       <c r="BA12" t="s">
         <v>30</v>
@@ -4060,19 +4060,19 @@
         <v>100</v>
       </c>
       <c r="BC12">
-        <v>145.9740842567913</v>
+        <v>145.9715651001151</v>
       </c>
       <c r="BD12">
-        <v>0.4878895814662635</v>
+        <v>0.4878827296963678</v>
       </c>
       <c r="BE12">
-        <v>86.59999999999999</v>
+        <v>80.69999999999999</v>
       </c>
       <c r="BF12">
-        <v>1.650002090390246</v>
+        <v>2.231372165828194</v>
       </c>
       <c r="BG12">
-        <v>1141.080283810682</v>
+        <v>1608.775894612973</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="4" customFormat="1">
@@ -4110,97 +4110,97 @@
         <v>6.361470309642285</v>
       </c>
       <c r="L13" s="4">
-        <v>10.39473298708381</v>
+        <v>10.37928597914206</v>
       </c>
       <c r="M13" s="4">
-        <v>0.08797657437095568</v>
+        <v>0.08784583750213142</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <v>13.69819424581063</v>
+        <v>13.69812341384287</v>
       </c>
       <c r="P13" s="4">
-        <v>0.001565780238667443</v>
+        <v>0.001565772142177248</v>
       </c>
       <c r="Q13" s="4">
-        <v>10.39473298708381</v>
+        <v>10.37928597914206</v>
       </c>
       <c r="R13" s="4">
-        <v>0.08797657437095568</v>
+        <v>0.08784583750213142</v>
       </c>
       <c r="S13" s="4">
-        <v>1.00112101840651</v>
+        <v>0.9996333107048122</v>
       </c>
       <c r="T13" s="4">
-        <v>0.001506192629674534</v>
+        <v>0.001503954364435659</v>
       </c>
       <c r="U13" s="4">
-        <v>1.00112101840651</v>
+        <v>0.9996333107048122</v>
       </c>
       <c r="V13" s="4">
-        <v>0.001506192629674534</v>
+        <v>0.001503954364435659</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>0.9460097571967889</v>
+        <v>0.9435030793968748</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.003905245893711661</v>
+        <v>0.003894898016102048</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.0002309939341145881</v>
+        <v>0.0002303818607589436</v>
       </c>
       <c r="AA13" s="4">
-        <v>9.535716791614916E-07</v>
+        <v>9.510449642512102E-07</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AD13" s="4">
-        <v>223.3250373579986</v>
+        <v>222.7324606451485</v>
       </c>
       <c r="AE13" s="4">
-        <v>0.5836373698105709</v>
+        <v>0.5820896102351726</v>
       </c>
       <c r="AF13" s="4">
-        <v>10.18129762781369</v>
+        <v>10.16847525031483</v>
       </c>
       <c r="AG13" s="4">
-        <v>0.02660779032684201</v>
+        <v>0.02657432050091565</v>
       </c>
       <c r="AH13" s="4">
-        <v>44076.03890915638</v>
+        <v>44137.48207787266</v>
       </c>
       <c r="AI13" s="4">
-        <v>215.3477112331694</v>
+        <v>215.6480049019324</v>
       </c>
       <c r="AJ13" s="4">
-        <v>1.121018406509577</v>
+        <v>-0.3666892951877943</v>
       </c>
       <c r="AK13" s="4">
-        <v>1.506192629674534</v>
+        <v>1.503954364435659</v>
       </c>
       <c r="AL13" s="4">
-        <v>0.9961369789812493</v>
+        <v>0.9948875835164225</v>
       </c>
       <c r="AM13" s="4">
-        <v>0.002605792038612424</v>
+        <v>0.002602527673821178</v>
       </c>
       <c r="AN13" s="4">
-        <v>0.9961369789812493</v>
+        <v>0.9948875835164225</v>
       </c>
       <c r="AO13" s="4">
-        <v>0.002605792038612424</v>
+        <v>0.002602527673821178</v>
       </c>
       <c r="AP13" s="4">
-        <v>569.3471</v>
+        <v>586.9563000000001</v>
       </c>
       <c r="AQ13" s="4" t="s">
         <v>119</v>
@@ -4209,25 +4209,25 @@
         <v>119</v>
       </c>
       <c r="AS13" s="4">
-        <v>2.260041972089083E-05</v>
+        <v>2.25406510901805E-05</v>
       </c>
       <c r="AT13" s="4">
-        <v>9.333310149547077E-08</v>
+        <v>9.308627458936794E-08</v>
       </c>
       <c r="AU13" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="AV13" s="4">
-        <v>0.375</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="4">
-        <v>569.3452</v>
+        <v>586.9366</v>
       </c>
       <c r="AX13" s="4" t="s">
         <v>119</v>
       </c>
       <c r="AY13" s="4">
-        <v>67.04159439869828</v>
+        <v>79.80719145116166</v>
       </c>
       <c r="AZ13" s="4" t="s">
         <v>118</v>
@@ -4236,19 +4236,19 @@
         <v>25</v>
       </c>
       <c r="BC13" s="4">
-        <v>5.603424352859182</v>
+        <v>-1.921590795359973</v>
       </c>
       <c r="BD13" s="4" t="s">
         <v>119</v>
       </c>
       <c r="BE13" s="4">
-        <v>569287.2</v>
+        <v>586878.6</v>
       </c>
       <c r="BF13" s="4">
-        <v>33520.79719934914</v>
+        <v>39903.59572558083</v>
       </c>
       <c r="BG13" s="4">
-        <v>5887.605129427478</v>
+        <v>6798.621133114008</v>
       </c>
     </row>
   </sheetData>
@@ -4274,7 +4274,7 @@
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
@@ -4405,34 +4405,34 @@
         <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>13.70104585233061</v>
+        <v>13.70097500561748</v>
       </c>
       <c r="D3" s="4">
-        <v>0.001458381816529189</v>
+        <v>0.001458374275385301</v>
       </c>
       <c r="E3" s="4">
-        <v>0.9308953049971663</v>
+        <v>0.9284286765323656</v>
       </c>
       <c r="F3" s="4">
-        <v>0.004344705994292121</v>
+        <v>0.004333193662648399</v>
       </c>
       <c r="G3" s="4">
-        <v>1.002044224632932</v>
+        <v>1.000787442962172</v>
       </c>
       <c r="H3" s="4">
-        <v>0.003417633598299903</v>
+        <v>0.003413352269067698</v>
       </c>
       <c r="I3" s="4">
-        <v>45066.6794231648</v>
+        <v>45129.50460378652</v>
       </c>
       <c r="J3" s="4">
-        <v>260.4696265987955</v>
+        <v>260.8328705916684</v>
       </c>
       <c r="K3" s="4">
-        <v>0.1143667343042054</v>
+        <v>-1.371845040908592</v>
       </c>
       <c r="L3" s="4">
-        <v>1.672089322806292</v>
+        <v>1.669604528143381</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>118</v>
@@ -4446,11 +4446,11 @@
       <c r="P3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0.1143667343042054</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1.672089322806292</v>
+      <c r="Q3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4461,28 +4461,28 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>2.882840036628364</v>
+        <v>2.88282512949779</v>
       </c>
       <c r="D4">
-        <v>0.0001619437037934368</v>
+        <v>0.000161942866384525</v>
       </c>
       <c r="E4">
-        <v>0.1648649603714585</v>
+        <v>0.164348706667991</v>
       </c>
       <c r="F4">
-        <v>0.0003275915424590783</v>
+        <v>0.0003265657311123974</v>
       </c>
       <c r="G4">
-        <v>0.001275152828087398</v>
+        <v>0.001273192151676993</v>
       </c>
       <c r="H4">
-        <v>2.701597863848178E-05</v>
+        <v>2.699081239094466E-05</v>
       </c>
       <c r="I4">
-        <v>68.24114306418033</v>
+        <v>68.26416634145255</v>
       </c>
       <c r="J4">
-        <v>1.452128166415402</v>
+        <v>1.453492150015857</v>
       </c>
       <c r="K4">
         <v>145.9064109889343</v>
@@ -4491,22 +4491,22 @@
         <v>0.5483315951927344</v>
       </c>
       <c r="M4">
-        <v>0.1218</v>
+        <v>0.1214</v>
       </c>
       <c r="N4">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="O4">
-        <v>0.1202</v>
+        <v>0.107</v>
       </c>
       <c r="P4">
-        <v>0.0026718929</v>
+        <v>0.007569934</v>
       </c>
       <c r="Q4">
-        <v>145.9064109889343</v>
+        <v>145.9504762272951</v>
       </c>
       <c r="R4">
-        <v>0.5483315951927344</v>
+        <v>0.5485060589872911</v>
       </c>
       <c r="S4">
         <v>30</v>
@@ -4520,34 +4520,34 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>13.70140446816101</v>
+        <v>13.70133361959352</v>
       </c>
       <c r="D5" s="4">
-        <v>0.001718799455033931</v>
+        <v>0.001718790567296949</v>
       </c>
       <c r="E5" s="4">
-        <v>0.9350241754877243</v>
+        <v>0.9325466065987698</v>
       </c>
       <c r="F5" s="4">
-        <v>0.003866776386707385</v>
+        <v>0.003856530443204103</v>
       </c>
       <c r="G5" s="4">
-        <v>1.001071669639563</v>
+        <v>0.9998161048780049</v>
       </c>
       <c r="H5" s="4">
-        <v>0.002858641065203783</v>
+        <v>0.002855059991423289</v>
       </c>
       <c r="I5" s="4">
-        <v>44825.30040817269</v>
+        <v>44887.78896491143</v>
       </c>
       <c r="J5" s="4">
-        <v>225.203410377069</v>
+        <v>225.517463967919</v>
       </c>
       <c r="K5" s="4">
-        <v>0.07524374222045438</v>
+        <v>-1.410909894590029</v>
       </c>
       <c r="L5" s="4">
-        <v>1.847658475256469</v>
+        <v>1.844912777490458</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>118</v>
@@ -4561,11 +4561,11 @@
       <c r="P5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0.07524374222045438</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1.847658475256469</v>
+      <c r="Q5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4576,52 +4576,52 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>2.894233252161722</v>
+        <v>2.89421828608744</v>
       </c>
       <c r="D6">
-        <v>0.0001723385360822908</v>
+        <v>0.00017233764492007</v>
       </c>
       <c r="E6">
-        <v>0.08206535589386277</v>
+        <v>0.08175910603621016</v>
       </c>
       <c r="F6">
-        <v>0.0002542747168099036</v>
+        <v>0.0002533258194953242</v>
       </c>
       <c r="G6">
-        <v>0.001202215160090243</v>
+        <v>0.001200052585909841</v>
       </c>
       <c r="H6">
-        <v>2.40145396881105E-05</v>
+        <v>2.398829104203286E-05</v>
       </c>
       <c r="I6">
-        <v>129.6336887695163</v>
+        <v>129.7216277929673</v>
       </c>
       <c r="J6">
-        <v>2.620419626504751</v>
+        <v>2.624007762191912</v>
       </c>
       <c r="K6">
-        <v>144.4746150985909</v>
+        <v>144.4746150985912</v>
       </c>
       <c r="L6">
-        <v>0.4966198109484972</v>
+        <v>0.4966198109484973</v>
       </c>
       <c r="M6">
-        <v>0.1147</v>
+        <v>0.1143</v>
       </c>
       <c r="N6">
-        <v>0.0052</v>
+        <v>0.0049</v>
       </c>
       <c r="O6">
-        <v>0.1141</v>
+        <v>0.1074</v>
       </c>
       <c r="P6">
-        <v>0.0023776868</v>
+        <v>0.0042007906</v>
       </c>
       <c r="Q6">
-        <v>144.4746150985909</v>
+        <v>144.5184110579224</v>
       </c>
       <c r="R6">
-        <v>0.4966198109484972</v>
+        <v>0.4967733103978625</v>
       </c>
       <c r="S6">
         <v>47.5</v>
@@ -4635,52 +4635,52 @@
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <v>13.70348548121096</v>
+        <v>13.70341462188276</v>
       </c>
       <c r="D7" s="4">
-        <v>0.001771577620583448</v>
+        <v>0.001771568459935945</v>
       </c>
       <c r="E7" s="4">
-        <v>0.9446978553457307</v>
+        <v>0.9421946537417234</v>
       </c>
       <c r="F7" s="4">
-        <v>0.00359360536525734</v>
+        <v>0.003584083253331734</v>
       </c>
       <c r="G7" s="4">
-        <v>1.000062521595576</v>
+        <v>0.9988082190873528</v>
       </c>
       <c r="H7" s="4">
-        <v>0.002213653272754594</v>
+        <v>0.002210880169832023</v>
       </c>
       <c r="I7" s="4">
-        <v>44328.29804948058</v>
+        <v>44390.09360885307</v>
       </c>
       <c r="J7" s="4">
-        <v>195.0099897970511</v>
+        <v>195.2819162490503</v>
       </c>
       <c r="K7" s="4">
-        <v>2.514640426850789</v>
+        <v>1.024861744547856</v>
       </c>
       <c r="L7" s="4">
-        <v>1.802158364614082</v>
+        <v>1.799480281915367</v>
       </c>
       <c r="M7" s="4">
-        <v>617.4591</v>
+        <v>647.074</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>119</v>
       </c>
       <c r="O7" s="4">
-        <v>617.4573</v>
+        <v>647.0545</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>119</v>
       </c>
       <c r="Q7" s="4">
-        <v>2.514640426850789</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1.802158364614082</v>
+        <v>6.363701625122824</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4691,28 +4691,28 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>2.755638310601177</v>
+        <v>2.755624061240332</v>
       </c>
       <c r="D8">
-        <v>0.0001972308851365691</v>
+        <v>0.0001972298652588728</v>
       </c>
       <c r="E8">
-        <v>0.06829703125084907</v>
+        <v>0.06804359221735705</v>
       </c>
       <c r="F8">
-        <v>0.0002631033824980844</v>
+        <v>0.0002621270491824548</v>
       </c>
       <c r="G8">
-        <v>0.001360027298009095</v>
+        <v>0.00135815692283316</v>
       </c>
       <c r="H8">
-        <v>2.633488345141829E-05</v>
+        <v>2.631298030659E-05</v>
       </c>
       <c r="I8">
-        <v>167.5351628258868</v>
+        <v>167.716426092216</v>
       </c>
       <c r="J8">
-        <v>3.307622693930106</v>
+        <v>3.31293499542288</v>
       </c>
       <c r="K8">
         <v>144.5202595351331</v>
@@ -4721,22 +4721,22 @@
         <v>0.5464885728009569</v>
       </c>
       <c r="M8">
-        <v>0.1295</v>
+        <v>0.1292</v>
       </c>
       <c r="N8">
         <v>0.0026</v>
       </c>
       <c r="O8">
-        <v>0.1293</v>
+        <v>0.1233</v>
       </c>
       <c r="P8">
-        <v>0.0025265543</v>
+        <v>0.0039732049</v>
       </c>
       <c r="Q8">
-        <v>144.5202595351331</v>
+        <v>144.5705562673678</v>
       </c>
       <c r="R8">
-        <v>0.5464885728009569</v>
+        <v>0.5466811681316688</v>
       </c>
       <c r="S8">
         <v>70</v>
@@ -4750,52 +4750,52 @@
         <v>25</v>
       </c>
       <c r="C9" s="4">
-        <v>13.70232996426819</v>
+        <v>13.70225911091505</v>
       </c>
       <c r="D9" s="4">
-        <v>0.001644691398066958</v>
+        <v>0.001644682893535193</v>
       </c>
       <c r="E9" s="4">
-        <v>0.9488419428341529</v>
+        <v>0.9463277604849375</v>
       </c>
       <c r="F9" s="4">
-        <v>0.004077997428984894</v>
+        <v>0.004067191805104615</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9981982545855603</v>
+        <v>0.996946282903914</v>
       </c>
       <c r="H9" s="4">
-        <v>0.002324080483473824</v>
+        <v>0.002321169032919463</v>
       </c>
       <c r="I9" s="4">
-        <v>44048.70492492595</v>
+        <v>44110.11039280472</v>
       </c>
       <c r="J9" s="4">
-        <v>215.2451075129761</v>
+        <v>215.5452403359773</v>
       </c>
       <c r="K9" s="4">
-        <v>0.6979624794027917</v>
+        <v>-0.7891165434938952</v>
       </c>
       <c r="L9" s="4">
-        <v>1.333396989833812</v>
+        <v>1.331415506142307</v>
       </c>
       <c r="M9" s="4">
-        <v>642.115</v>
+        <v>681.6232</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>119</v>
       </c>
       <c r="O9" s="4">
-        <v>642.1132</v>
+        <v>681.6034</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>119</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.6979624794027917</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1.333396989833812</v>
+        <v>-5.401689075826549</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4806,28 +4806,28 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>2.853939855296876</v>
+        <v>2.853925097618624</v>
       </c>
       <c r="D10">
-        <v>0.0001451909346112916</v>
+        <v>0.0001451901838312448</v>
       </c>
       <c r="E10">
-        <v>0.1295900854374632</v>
+        <v>0.1291711212722189</v>
       </c>
       <c r="F10">
-        <v>0.0003235275340622288</v>
+        <v>0.0003224815709950363</v>
       </c>
       <c r="G10">
-        <v>0.001190813506301221</v>
+        <v>0.00118892552192761</v>
       </c>
       <c r="H10">
-        <v>2.544033175877136E-05</v>
+        <v>2.541588325841723E-05</v>
       </c>
       <c r="I10">
-        <v>79.93673670418434</v>
+        <v>79.96802400933139</v>
       </c>
       <c r="J10">
-        <v>1.719370610331665</v>
+        <v>1.721104867873264</v>
       </c>
       <c r="K10">
         <v>145.1899155599503</v>
@@ -4836,22 +4836,22 @@
         <v>0.3791130483964922</v>
       </c>
       <c r="M10">
-        <v>0.1132</v>
+        <v>0.1129</v>
       </c>
       <c r="N10">
-        <v>0.004</v>
+        <v>0.0038</v>
       </c>
       <c r="O10">
-        <v>0.1125</v>
+        <v>0.102</v>
       </c>
       <c r="P10">
-        <v>0.0024774785</v>
+        <v>0.0061537031</v>
       </c>
       <c r="Q10">
-        <v>145.1899155599503</v>
+        <v>145.2317151027403</v>
       </c>
       <c r="R10">
-        <v>0.3791130483964922</v>
+        <v>0.3792305804964585</v>
       </c>
       <c r="S10">
         <v>83.5</v>
@@ -4865,52 +4865,52 @@
         <v>25</v>
       </c>
       <c r="C11" s="4">
-        <v>13.69731644497772</v>
+        <v>13.69724561754897</v>
       </c>
       <c r="D11" s="4">
-        <v>0.001369559056425418</v>
+        <v>0.001369551974574979</v>
       </c>
       <c r="E11" s="4">
-        <v>0.9495096631476283</v>
+        <v>0.9469937115146677</v>
       </c>
       <c r="F11" s="4">
-        <v>0.003940845703745954</v>
+        <v>0.003930403495974505</v>
       </c>
       <c r="G11" s="4">
-        <v>0.996806007216227</v>
+        <v>0.9955557753924129</v>
       </c>
       <c r="H11" s="4">
-        <v>0.002448158106032126</v>
+        <v>0.002445091223899502</v>
       </c>
       <c r="I11" s="4">
-        <v>43940.25142754022</v>
+        <v>44001.50542703786</v>
       </c>
       <c r="J11" s="4">
-        <v>211.8620960698193</v>
+        <v>212.1575211307358</v>
       </c>
       <c r="K11" s="4">
-        <v>0.7046473595699876</v>
+        <v>-0.7824415973383125</v>
       </c>
       <c r="L11" s="4">
-        <v>1.929450337261307</v>
+        <v>1.926583093367701</v>
       </c>
       <c r="M11" s="4">
-        <v>597.8621000000001</v>
+        <v>621.8912</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>119</v>
       </c>
       <c r="O11" s="4">
-        <v>597.8603000000001</v>
+        <v>621.8714</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>119</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.7046473595699876</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1.929450337261307</v>
+        <v>-4.525134419137371</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4921,28 +4921,28 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>2.734917498207005</v>
+        <v>2.734903355941235</v>
       </c>
       <c r="D12">
-        <v>0.000175883451104777</v>
+        <v>0.0001758825416109763</v>
       </c>
       <c r="E12">
-        <v>0.06670335028671695</v>
+        <v>0.06643871873194153</v>
       </c>
       <c r="F12">
-        <v>0.0002422363215640647</v>
+        <v>0.0002412752997544699</v>
       </c>
       <c r="G12">
-        <v>0.001522389152914374</v>
+        <v>0.001520132977891339</v>
       </c>
       <c r="H12">
-        <v>3.445038229652278E-05</v>
+        <v>3.441946483084846E-05</v>
       </c>
       <c r="I12">
-        <v>190.0653426357847</v>
+        <v>190.2996261092773</v>
       </c>
       <c r="J12">
-        <v>4.356033591580113</v>
+        <v>4.363892205478165</v>
       </c>
       <c r="K12">
         <v>145.9144393217995</v>
@@ -4951,22 +4951,22 @@
         <v>0.4876883458809652</v>
       </c>
       <c r="M12">
-        <v>0.1445</v>
+        <v>0.1441</v>
       </c>
       <c r="N12">
-        <v>0.0056</v>
+        <v>0.0052</v>
       </c>
       <c r="O12">
-        <v>0.1446</v>
+        <v>0.1387</v>
       </c>
       <c r="P12">
-        <v>0.0032872178</v>
+        <v>0.0044557804</v>
       </c>
       <c r="Q12">
-        <v>145.9144393217995</v>
+        <v>145.9715651001151</v>
       </c>
       <c r="R12">
-        <v>0.4876883458809652</v>
+        <v>0.4878827296963678</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -4980,52 +4980,52 @@
         <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>13.69819424581063</v>
+        <v>13.69812341384287</v>
       </c>
       <c r="D13" s="4">
-        <v>0.001565780238667443</v>
+        <v>0.001565772142177248</v>
       </c>
       <c r="E13" s="4">
-        <v>0.9460097571967889</v>
+        <v>0.9435030793968748</v>
       </c>
       <c r="F13" s="4">
-        <v>0.003905245893711661</v>
+        <v>0.003894898016102048</v>
       </c>
       <c r="G13" s="4">
-        <v>0.9961369789812493</v>
+        <v>0.9948875835164225</v>
       </c>
       <c r="H13" s="4">
-        <v>0.002605792038612424</v>
+        <v>0.002602527673821178</v>
       </c>
       <c r="I13" s="4">
-        <v>44076.03890915638</v>
+        <v>44137.48207787266</v>
       </c>
       <c r="J13" s="4">
-        <v>215.3477112331694</v>
+        <v>215.6480049019324</v>
       </c>
       <c r="K13" s="4">
-        <v>1.121018406509577</v>
+        <v>-0.3666892951877943</v>
       </c>
       <c r="L13" s="4">
-        <v>1.506192629674534</v>
+        <v>1.503954364435659</v>
       </c>
       <c r="M13" s="4">
-        <v>569.3471</v>
+        <v>586.9563000000001</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>119</v>
       </c>
       <c r="O13" s="4">
-        <v>569.3452</v>
+        <v>586.9366</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>119</v>
       </c>
       <c r="Q13" s="4">
-        <v>1.121018406509577</v>
-      </c>
-      <c r="R13" s="4">
-        <v>1.506192629674534</v>
+        <v>-1.921590795359973</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
